--- a/DragPrediction/NL2VP DragX/0.5T/n/6/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5T/n/6/test.xlsx
@@ -348,15 +348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,8 +372,11 @@
       <c r="E1">
         <v>8.1675991735537194E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>57.514937000000003</v>
       </c>
@@ -394,8 +397,16 @@
         <f>SUM(E2:E59)</f>
         <v>5.1825270474506793</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>A2*$G$1</f>
+        <v>1.2078136770000001</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G59)</f>
+        <v>13.324976615999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>50.379295999999997</v>
       </c>
@@ -412,8 +423,12 @@
         <f t="shared" ref="E3:E59" si="0">A3*$E$1</f>
         <v>0.41147789637381815</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G59" si="1">A3*$G$1</f>
+        <v>1.0579652159999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>50.341374000000002</v>
       </c>
@@ -430,8 +445,12 @@
         <f t="shared" si="0"/>
         <v>0.41116816467795869</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.0571688540000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>22.784673000000002</v>
       </c>
@@ -448,8 +467,12 @@
         <f t="shared" si="0"/>
         <v>0.18609607636449177</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.47847813300000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>25.020911999999999</v>
       </c>
@@ -466,8 +489,12 @@
         <f t="shared" si="0"/>
         <v>0.20436078017276033</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.52543915200000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>49.979267999999998</v>
       </c>
@@ -484,8 +511,12 @@
         <f t="shared" si="0"/>
         <v>0.40821062801161984</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.0495646279999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>25.078700999999999</v>
       </c>
@@ -502,8 +533,12 @@
         <f t="shared" si="0"/>
         <v>0.20483277756140084</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.52665272100000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>40.791077999999999</v>
       </c>
@@ -520,8 +555,12 @@
         <f t="shared" si="0"/>
         <v>0.33316517496116527</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.85661263799999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>24.235389999999999</v>
       </c>
@@ -538,8 +577,12 @@
         <f t="shared" si="0"/>
         <v>0.19794495133475207</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.50894318999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>18.752963999999999</v>
       </c>
@@ -556,8 +599,12 @@
         <f t="shared" si="0"/>
         <v>0.15316669326808263</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.39381224399999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.41349799999999998</v>
       </c>
@@ -574,8 +621,12 @@
         <f t="shared" si="0"/>
         <v>3.3772859230661156E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>8.6834579999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>-0.14632899999999999</v>
       </c>
@@ -592,8 +643,12 @@
         <f t="shared" si="0"/>
         <v>-1.1951566194669421E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-3.072909E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>-1.5529630000000001</v>
       </c>
@@ -610,8 +665,12 @@
         <f t="shared" si="0"/>
         <v>-1.2683979315359506E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-3.2612223000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>-14.262368</v>
       </c>
@@ -628,8 +687,12 @@
         <f t="shared" si="0"/>
         <v>-0.11648930508971901</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-0.29950972800000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>3.997093</v>
       </c>
@@ -646,8 +709,12 @@
         <f t="shared" si="0"/>
         <v>3.2646653483417359E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>8.3938953000000011E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>11.093484999999999</v>
       </c>
@@ -664,8 +731,12 @@
         <f t="shared" si="0"/>
         <v>9.0607138917830579E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.23296318499999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>11.595167999999999</v>
       </c>
@@ -682,8 +753,12 @@
         <f t="shared" si="0"/>
         <v>9.4704684574016526E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.24349852799999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>3.1276459999999999</v>
       </c>
@@ -700,8 +775,12 @@
         <f t="shared" si="0"/>
         <v>2.5545358884768596E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>6.5680565999999996E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>13.137259999999999</v>
       </c>
@@ -718,8 +797,12 @@
         <f t="shared" si="0"/>
         <v>0.10729987391876034</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.27588246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>13.528862999999999</v>
       </c>
@@ -736,8 +819,12 @@
         <f t="shared" si="0"/>
         <v>0.11049833025792148</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.28410612299999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>-1.0692999999999999</v>
       </c>
@@ -754,8 +841,12 @@
         <f t="shared" si="0"/>
         <v>-8.733613796280992E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-2.2455300000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>-1.697292</v>
       </c>
@@ -772,8 +863,12 @@
         <f t="shared" si="0"/>
         <v>-1.3862800736479339E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-3.5643132000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>-2.8773399999999998</v>
       </c>
@@ -790,8 +885,12 @@
         <f t="shared" si="0"/>
         <v>-2.3500959806033058E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-6.0424140000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>-4.2683090000000004</v>
       </c>
@@ -808,8 +907,12 @@
         <f t="shared" si="0"/>
         <v>-3.4861837060871904E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-8.9634489000000012E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>-6.767423</v>
       </c>
@@ -826,8 +929,12 @@
         <f t="shared" si="0"/>
         <v>-5.5273598501888434E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-0.142115883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>-10.857239</v>
       </c>
@@ -844,8 +951,12 @@
         <f t="shared" si="0"/>
         <v>-8.867757628347521E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-0.228002019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>-11.538944000000001</v>
       </c>
@@ -862,8 +973,12 @@
         <f t="shared" si="0"/>
         <v>-9.4245469478082655E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-0.24231782400000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>-15.325326</v>
       </c>
@@ -880,8 +995,12 @@
         <f t="shared" si="0"/>
         <v>-0.12517111997204133</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-0.32183184600000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>-11.115050999999999</v>
       </c>
@@ -898,8 +1017,12 @@
         <f t="shared" si="0"/>
         <v>-9.0783281361607432E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-0.233416071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>2.7445240000000002</v>
       </c>
@@ -916,8 +1039,12 @@
         <f t="shared" si="0"/>
         <v>2.2416171954198351E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>5.7635004000000011E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>3.2202649999999999</v>
       </c>
@@ -934,8 +1061,12 @@
         <f t="shared" si="0"/>
         <v>2.6301833752623967E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>6.7625564999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>3.8150390000000001</v>
       </c>
@@ -952,8 +1083,12 @@
         <f t="shared" si="0"/>
         <v>3.1159709383475207E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>8.0115819000000005E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>8.6176840000000006</v>
       </c>
@@ -970,8 +1105,12 @@
         <f t="shared" si="0"/>
         <v>7.0385788716347111E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.18097136400000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>5.5099349999999996</v>
       </c>
@@ -988,8 +1127,12 @@
         <f t="shared" si="0"/>
         <v>4.5002940552334711E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.115708635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>9.2623909999999992</v>
       </c>
@@ -1006,8 +1149,12 @@
         <f t="shared" si="0"/>
         <v>7.5651497076731397E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.19451021099999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>6.1970999999999998</v>
       </c>
@@ -1024,8 +1171,12 @@
         <f t="shared" si="0"/>
         <v>5.0615428838429753E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0.13013910000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>9.6747639999999997</v>
       </c>
@@ -1042,8 +1193,12 @@
         <f t="shared" si="0"/>
         <v>7.9019594450727274E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0.20317004399999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>8.1093659999999996</v>
       </c>
@@ -1060,8 +1215,12 @@
         <f t="shared" si="0"/>
         <v>6.6234051039644623E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0.170296686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>9.8277819999999991</v>
       </c>
@@ -1078,8 +1237,12 @@
         <f t="shared" si="0"/>
         <v>8.0269384141066116E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0.20638342199999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>6.7358029999999998</v>
       </c>
@@ -1096,8 +1259,12 @@
         <f t="shared" si="0"/>
         <v>5.501533901602066E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0.14145186300000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>10.160994000000001</v>
       </c>
@@ -1114,8 +1281,12 @@
         <f t="shared" si="0"/>
         <v>8.2990926196884307E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0.21338087400000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>10.448804000000001</v>
       </c>
@@ -1132,8 +1303,12 @@
         <f t="shared" si="0"/>
         <v>8.5341642915024801E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0.21942488400000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>10.182529000000001</v>
       </c>
@@ -1150,8 +1325,12 @@
         <f t="shared" si="0"/>
         <v>8.3166815445086792E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0.21383310900000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>9.8994529999999994</v>
       </c>
@@ -1168,8 +1347,12 @@
         <f t="shared" si="0"/>
         <v>8.0854764141433888E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0.207888513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>10.427023999999999</v>
       </c>
@@ -1186,8 +1369,12 @@
         <f t="shared" si="0"/>
         <v>8.5163752605024789E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0.21896750400000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>10.821991000000001</v>
       </c>
@@ -1204,8 +1391,12 @@
         <f t="shared" si="0"/>
         <v>8.83896847478058E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0.22726181100000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>10.496437</v>
       </c>
@@ -1222,8 +1413,12 @@
         <f t="shared" si="0"/>
         <v>8.5730690166458678E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0.22042517700000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>15.076033000000001</v>
       </c>
@@ -1240,8 +1435,12 @@
         <f t="shared" si="0"/>
         <v>0.12313499467126861</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0.31659669300000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>10.006515</v>
       </c>
@@ -1258,8 +1457,12 @@
         <f t="shared" si="0"/>
         <v>8.1729203644152898E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0.21013681500000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>13.063644999999999</v>
       </c>
@@ -1276,8 +1479,12 @@
         <f t="shared" si="0"/>
         <v>0.10669861610559918</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0.27433654499999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>14.067746</v>
       </c>
@@ -1294,8 +1501,12 @@
         <f t="shared" si="0"/>
         <v>0.11489971060336364</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0.295422666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>12.667847999999999</v>
       </c>
@@ -1312,8 +1523,12 @@
         <f t="shared" si="0"/>
         <v>0.10346590485550414</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0.266024808</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>11.936904999999999</v>
       </c>
@@ -1330,8 +1545,12 @@
         <f t="shared" si="0"/>
         <v>9.7495855412789253E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0.25067500500000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>14.599099000000001</v>
       </c>
@@ -1348,8 +1567,12 @@
         <f t="shared" si="0"/>
         <v>0.11923958892702893</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.30658107900000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>14.531298</v>
       </c>
@@ -1366,8 +1589,12 @@
         <f t="shared" si="0"/>
         <v>0.11868581753546281</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0.30515725799999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>14.069456000000001</v>
       </c>
@@ -1384,8 +1611,12 @@
         <f t="shared" si="0"/>
         <v>0.11491367719795043</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>0.29545857600000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>13.943308</v>
       </c>
@@ -1402,8 +1633,12 @@
         <f t="shared" si="0"/>
         <v>0.11388335089740496</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0.29280946800000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>14.115235999999999</v>
       </c>
@@ -1419,6 +1654,10 @@
       <c r="E59">
         <f t="shared" si="0"/>
         <v>0.1152875898881157</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0.29641995599999998</v>
       </c>
     </row>
   </sheetData>
@@ -1426,5 +1665,6 @@
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>